--- a/testing.xlsx
+++ b/testing.xlsx
@@ -16,12 +16,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t xml:space="preserve">fhdh </t>
   </si>
   <si>
     <t>h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shgd </t>
+  </si>
+  <si>
+    <t>fg</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -353,20 +365,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C17" sqref="C5:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="C16" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
